--- a/docs/画面項目定義書/login.xlsx
+++ b/docs/画面項目定義書/login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09BDF71-A49D-4B69-B007-EA5596F6B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EFC631-42B0-4BBF-B8F8-3C56C80A00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>日本工学院</t>
   </si>
@@ -153,32 +153,42 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、それぞれ利用者、管理者ダッシュボードに遷移させる</t>
+    <t>〇</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上方が入力されているかをチェックし、入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、それぞれ利用者、管理者ダッシュボードに遷移させる</t>
     <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
       <t>メイ</t>
     </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="49" eb="50">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="51" eb="53">
       <t>ソンザイ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="55" eb="57">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="62" eb="64">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="46" eb="47">
+    <rPh sb="64" eb="65">
       <t>シャ</t>
     </rPh>
-    <rPh sb="48" eb="51">
+    <rPh sb="66" eb="69">
       <t>カンリシャ</t>
     </rPh>
-    <rPh sb="59" eb="61">
+    <rPh sb="77" eb="79">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1135,7 +1145,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1305,7 +1315,9 @@
       <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -1337,12 +1349,14 @@
       <c r="C14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E14" s="29"/>
       <c r="F14" s="32"/>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1356,7 +1370,7 @@
       <c r="E15" s="29"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">

--- a/docs/画面項目定義書/login.xlsx
+++ b/docs/画面項目定義書/login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EFC631-42B0-4BBF-B8F8-3C56C80A00A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF382B-F2B3-4662-BE71-53D3CEB37CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>日本工学院</t>
   </si>
@@ -190,6 +190,19 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>asciiコード範囲の文字のみで構成されていること</t>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1144,9 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1302,7 +1313,6 @@
       <c r="E11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="32"/>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
@@ -1319,7 +1329,9 @@
         <v>26</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1336,7 +1348,6 @@
       <c r="E13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="32"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
@@ -1353,7 +1364,9 @@
         <v>26</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.4">
